--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_14</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9809092604766438</v>
+        <v>0.9999939371700672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8125802259886705</v>
+        <v>0.7303544721757246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8496725080744263</v>
+        <v>0.9999875022932393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9686436400716375</v>
+        <v>0.9999704428622728</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9302116400422146</v>
+        <v>0.9999799389991062</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1276598630974555</v>
+        <v>3.599157748672203e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.253276891802468</v>
+        <v>0.160073233396786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.529715184524267</v>
+        <v>7.540052061939091e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2219216673670138</v>
+        <v>1.495468112291761e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3758184003899575</v>
+        <v>1.124736659242835e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4283110973486488</v>
+        <v>0.0004525755245774236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3572952044142987</v>
+        <v>0.001897144630404388</v>
       </c>
       <c r="N2" t="n">
-        <v>1.012383182393528</v>
+        <v>1.000003932646443</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3725060009692512</v>
+        <v>0.001977910004951483</v>
       </c>
       <c r="P2" t="n">
-        <v>126.116771743109</v>
+        <v>147.069621397154</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.4681970600692</v>
+        <v>221.4210467141142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_13</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9808415930142346</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8125782062856387</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8494150801800713</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9699042221176535</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9309557827270687</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1281123557301663</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.253290397565941</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5306222938148777</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2130000173367199</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3718111058546951</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4310587085768486</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3579278638638885</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012427074801578</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3731655940413956</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P3" t="n">
-        <v>126.1096952418868</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.4611205588471</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_15</t>
+          <t>model_2_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9809425014188392</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8125602581067871</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8499004427896499</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9674853537473586</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9295250640671353</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1274375807639346</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.253410417120565</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5289120015655969</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2301193291160073</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3795156915264238</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4258304765705576</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3569840063139169</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N4" t="n">
-        <v>1.012361620701294</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3721815545214672</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P4" t="n">
-        <v>126.1202571937887</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q4" t="n">
-        <v>200.471682510749</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_12</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9807284626394248</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8125459394229579</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8491233271372571</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.971272826831259</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9317596659547899</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1288688590674361</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.253506166225262</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5316503560470764</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.203313847108301</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3674821015776887</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4341105973138045</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3589830902249243</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N5" t="n">
-        <v>1.012500456666319</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3742657435732404</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P5" t="n">
-        <v>126.097919976163</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.4493452931233</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_16</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9809499426921364</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125246777796051</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8501029906690061</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9664231753669066</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9288933517294803</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1273878209351319</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.253648342932264</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5281982752477175</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2376367959957611</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3829175356217393</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4236004417009815</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3569143047499385</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N6" t="n">
-        <v>1.012356793929425</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3721088856176082</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P6" t="n">
-        <v>126.1210382749385</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.4724635918987</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9809384594956413</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8124783107808725</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8502843277020729</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9654507443944288</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9283136601655062</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1274646091229704</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.253958399266289</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5275592904638856</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2445190840963131</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.386039241826385</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4215977704303476</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3570218608474422</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N7" t="n">
-        <v>1.012364242489314</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3722210206008544</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P7" t="n">
-        <v>126.119833056842</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.4712583738022</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_11</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9805560357702231</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8124729850542968</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8487909447609497</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.972755001844313</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.932624917195976</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1300218783357407</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.253994012424424</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5328215855377239</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1928238938427392</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3628226234412965</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4374889646479915</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3605854660628195</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012612301122017</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3759363358679301</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P8" t="n">
-        <v>126.0801050955925</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.4315304125527</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9809133180412081</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8124250693729521</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8504456086709242</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.964562332189264</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9277826276951985</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1276327301445308</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.254314424806207</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5269909780608713</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2508067373293352</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3888989131765485</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4197914754448334</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3572572324593734</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N9" t="n">
-        <v>1.012380550459757</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O9" t="n">
-        <v>0.372466412469592</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P9" t="n">
-        <v>126.1171968702571</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.4686221872174</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9808787666563449</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8123677777450118</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8505910690713384</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9637515367520805</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9272974336603933</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1278637754142054</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.254697534186047</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.52647841324748</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2565450652387105</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3915117392430952</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4181703497296217</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3575804460736148</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N10" t="n">
-        <v>1.012402962168857</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3728033859565361</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P10" t="n">
-        <v>126.1135796727201</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q10" t="n">
-        <v>200.4650049896804</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_10</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9803068232864772</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8123459711067562</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8484098207007971</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9743553748480094</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9335518492838898</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G11" t="n">
-        <v>0.131688363362068</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.254843355276473</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5341645681104016</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1814974054939366</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3578309868021691</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4412168642362699</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3628889132531717</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N11" t="n">
-        <v>1.012773952462826</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3783378455739687</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P11" t="n">
-        <v>126.0546340625926</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4060593795529</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.980837887872278</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8123086485297706</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8507209276702938</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9630126213656359</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9268543591075699</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1281371320314906</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.255092931520631</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I12" t="n">
-        <v>0.526020825145486</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2617746688973479</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3938977470214169</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4167145493049662</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3579624729374444</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N12" t="n">
-        <v>1.012429478136901</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3732016764948635</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P12" t="n">
-        <v>126.1093084890918</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.4607338060521</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_21</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.980793268456837</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8122492904438956</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8508378012896114</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9623403450899243</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F13" t="n">
-        <v>0.926450826535001</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1284355022679976</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>1.255489859314196</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5256089927518911</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2665326405617266</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3960708166568089</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.415403203867067</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3583789925037426</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01245842046043</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3736359281614134</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P13" t="n">
-        <v>126.1046568570607</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.4560821740209</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9807466905845327</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8121909015159172</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8509428901611468</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9617289335820702</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9260834070376869</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1287469687145681</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>1.255880306344443</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5252386867601944</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2708598475966099</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3980494131997883</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4142290663582096</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3588132783420481</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012488633134357</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3740887024469511</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P14" t="n">
-        <v>126.0998125673599</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.4512378843202</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_9</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9799586847380141</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8121477408913057</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8479692011335589</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9760773977071444</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9345392769189697</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1340163674386713</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>1.256168921639957</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5357171974556723</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1693099518157533</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3525135746357127</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4453330514701139</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M15" t="n">
-        <v>0.366082459889396</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012999772061829</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3816673481020499</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P15" t="n">
-        <v>126.0195866828512</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.3710119998115</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9806996215721031</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8121342968419137</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8510376893013643</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9611737522343746</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9257496365207726</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1290617194174172</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>1.256258822060145</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5249046391192086</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2747890909990057</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3998468060865097</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4131707025283212</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3592516101806883</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012519164385663</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3745456949794343</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P16" t="n">
-        <v>126.0949290878851</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.4463544048454</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_24</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9806529935214244</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8120800952036163</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8511227450099416</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9606697157987166</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9254462710043213</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1293735214070083</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.256621268665016</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5246049248102239</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2783563611308228</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4014804645246093</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4122233173054465</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3596853088562394</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012549409607725</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3749978571054836</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P17" t="n">
-        <v>126.0901030875318</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.4415284044921</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_8</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9794840751791313</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8118566108735085</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8474563893960495</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9779228913907815</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F18" t="n">
-        <v>0.935584243573495</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1371900837442964</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>1.258115709409497</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5375242133293586</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1562486450721224</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3468863081860915</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4498521956350743</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3703917976201638</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013307626910834</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3861601432615754</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P18" t="n">
-        <v>125.9727756844372</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.3242010013974</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9788482295659051</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8114449861171812</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8468531588782243</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9798914983156725</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9366804835783915</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1414419862877402</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.260868246050416</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5396498415891492</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.142316016024613</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3409829288068811</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4548012479411568</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3760877374865341</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013720067308602</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3920985710802781</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P19" t="n">
-        <v>125.9117312737349</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.2631565906952</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9780076859266852</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8108777218840382</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D20" t="n">
-        <v>0.846138159198452</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9819790388502808</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378183325102164</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1470627054735512</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.264661544589455</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5421693154555322</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1275416456195372</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3348554805375347</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.460192852776797</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3834875558261979</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014265284804312</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O20" t="n">
-        <v>0.399813415006397</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P20" t="n">
-        <v>125.8337924306206</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.1852177475809</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9769079089395935</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8101101325353269</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8452815346350077</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9841768345467683</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9389822880874686</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1544169192502407</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.26979441809871</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5451878387667413</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1119869547494605</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.328587444959216</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4660303349928007</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3929591826770825</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014978653660804</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4096882686212943</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P21" t="n">
-        <v>125.7361981335174</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.0876234504777</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.975480478957973</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8090852994133046</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8442439918829028</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9864690365202531</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9401490933005372</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1639621501100478</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.276647481904597</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5488438709624701</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09576411239595173</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3223040637620174</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4722850546339227</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4049224001090181</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015904554189423</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4221607849865815</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P22" t="n">
-        <v>125.6162393396128</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.9676646565731</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9736396123097841</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8077305021024931</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8429754629447542</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9888295822354836</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9412852541155756</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1762720338628981</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.285707017760261</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5533138387104747</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07905757368365138</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.316185706197063</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4789144733663647</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4198476317223882</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N23" t="n">
-        <v>1.017098629853113</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4377214146092215</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P23" t="n">
-        <v>125.471453660557</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.8228789775173</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_2</t>
+          <t>model_2_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9712775520174932</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8059527146529386</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8414091910905276</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9912177013994409</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9423421070085375</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1920671419137351</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.29759509062139</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5588329754541889</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06215588649970075</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3104944309769448</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.485817749281707</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4382546541837692</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018630777069734</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4569120621245728</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P24" t="n">
-        <v>125.2998205412338</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.651245858194</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_1</t>
+          <t>model_2_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9682583271521823</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8036323314519025</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8394567580313481</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9935701901943617</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9432492042799629</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2122567124903216</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.313111503771101</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5657128443655028</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04550636987775349</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3056096071216282</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4928398774097681</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4607132649385315</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N25" t="n">
-        <v>1.020589193198584</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4803267824348987</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P25" t="n">
-        <v>125.0999176577893</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.4513429747496</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9644100609404821</v>
+        <v>0.9999939366037356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8006146484494159</v>
+        <v>0.7303544547393743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8370028313973987</v>
+        <v>0.9999875004830692</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9957897594115318</v>
+        <v>0.9999704408647786</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9439048863145494</v>
+        <v>0.999979937123854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2379900863675972</v>
+        <v>3.599493947606179e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>1.333290763903882</v>
+        <v>0.1600732437477567</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5743598468735672</v>
+        <v>7.541144164448364e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02979757897739914</v>
+        <v>1.495569177184132e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3020786834324662</v>
+        <v>1.124841796814484e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4997110343170296</v>
+        <v>0.000452569083103255</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4878422761175965</v>
+        <v>0.001897233234899225</v>
       </c>
       <c r="N26" t="n">
-        <v>1.023085365876444</v>
+        <v>1.000003933013793</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5086107317846515</v>
+        <v>0.001978002381523102</v>
       </c>
       <c r="P26" t="n">
-        <v>124.8710525201917</v>
+        <v>147.069434584985</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.222477837152</v>
+        <v>221.4208599019453</v>
       </c>
     </row>
   </sheetData>
